--- a/data/compiling/2023/ACG_compiling_status_2024-01-05.xlsx
+++ b/data/compiling/2023/ACG_compiling_status_2024-01-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisjoyce/GitHub/ACG-CBC-data/data/compiling/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6FCC4F-71BB-2E48-886A-D4AA9B9B1E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C734AF3-0EED-BC49-875C-3B0F1A9AEDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="760" windowWidth="22080" windowHeight="17360" xr2:uid="{68BD8500-B558-904B-9EC2-B2490A184EE0}"/>
+    <workbookView xWindow="8160" yWindow="760" windowWidth="22080" windowHeight="17200" xr2:uid="{68BD8500-B558-904B-9EC2-B2490A184EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>Santa Rosa</t>
   </si>
@@ -171,6 +171,30 @@
   </si>
   <si>
     <t>Luis Carrillo</t>
+  </si>
+  <si>
+    <t>effort info entered?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Siempre Verde</t>
+  </si>
+  <si>
+    <t>Ann Henry</t>
+  </si>
+  <si>
+    <t>no distance…</t>
+  </si>
+  <si>
+    <t>Google Form</t>
+  </si>
+  <si>
+    <t>Casona</t>
+  </si>
+  <si>
+    <t>Area Administrativa</t>
   </si>
 </sst>
 </file>
@@ -220,11 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -539,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8030EC-4DAE-C043-A8D0-2FBBA42D6D30}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -550,10 +573,11 @@
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -570,10 +594,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -589,8 +616,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -606,8 +636,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -624,10 +657,13 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -640,11 +676,14 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -660,8 +699,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -678,10 +720,13 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -698,10 +743,13 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -714,11 +762,17 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -734,8 +788,9 @@
       <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -751,10 +806,16 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
@@ -765,106 +826,143 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
         <v>31</v>
       </c>
     </row>
